--- a/upload/KE HOACH GIANG DAY Tin UD K42.xlsx
+++ b/upload/KE HOACH GIANG DAY Tin UD K42.xlsx
@@ -582,27 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,9 +598,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,19 +623,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1061,8 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,94 +1078,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1200,319 +1200,325 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
         <v>45</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="11">
         <v>30</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="11">
         <v>12</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18">
+      <c r="D12" s="13"/>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <v>30</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="11">
         <v>2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>26</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
         <v>45</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="11">
         <v>20</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="11">
         <v>23</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18">
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
         <v>60</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="11">
         <v>30</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>25</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18">
+      <c r="E15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
         <v>45</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="11">
         <v>17</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="11">
         <v>25</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20">
-        <v>3</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18">
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
         <v>75</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="11">
         <v>17</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="11">
         <v>54</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18">
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11">
         <v>75</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="11">
         <v>20</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="11">
         <v>51</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="18">
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11">
         <v>75</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="11">
         <v>20</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="11">
         <v>51</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11">
         <v>30</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="11">
         <v>21</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>7</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="16">
         <f>SUM(D11:D19)</f>
-        <v>11</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <f>SUM(G11:G19)</f>
         <v>480</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="16">
         <f>SUM(H11:H19)</f>
         <v>177</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="16">
         <f t="shared" ref="I20:J20" si="0">SUM(I11:I19)</f>
         <v>274</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1550,27 +1556,29 @@
       <c r="A25" s="5">
         <v>1</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18">
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11">
         <v>45</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="11">
         <v>30</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="11">
         <v>12</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1578,27 +1586,27 @@
       <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18">
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11">
         <v>30</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="11">
         <v>2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="11">
         <v>26</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1606,27 +1614,29 @@
       <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18">
+      <c r="D27" s="13">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11">
         <v>60</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="11">
         <v>30</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="11">
         <v>25</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1634,27 +1644,27 @@
       <c r="A28" s="5">
         <v>4</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18">
+      <c r="D28" s="13"/>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11">
         <v>30</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="11">
         <v>15</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="11">
         <v>13</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1662,29 +1672,29 @@
       <c r="A29" s="5">
         <v>5</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="18">
-        <v>3</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18">
+      <c r="D29" s="11">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11">
         <v>75</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="11">
         <v>20</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="11">
         <v>51</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1692,29 +1702,29 @@
       <c r="A30" s="5">
         <v>6</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18">
+      <c r="E30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11">
         <v>45</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="11">
         <v>17</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="11">
         <v>25</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1722,29 +1732,29 @@
       <c r="A31" s="5">
         <v>7</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="18">
-        <v>3</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18">
+      <c r="D31" s="11">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11">
         <v>75</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="11">
         <v>20</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="11">
         <v>51</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1752,29 +1762,29 @@
       <c r="A32" s="5">
         <v>8</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="18">
-        <v>3</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18">
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11">
         <v>75</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="11">
         <v>20</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="11">
         <v>51</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1782,79 +1792,79 @@
       <c r="A33" s="5">
         <v>9</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18">
+      <c r="D33" s="11"/>
+      <c r="E33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11">
         <v>90</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="11">
         <v>0</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="11">
         <v>90</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="16">
         <f>SUM(D25:D32)</f>
-        <v>11</v>
-      </c>
-      <c r="E34" s="24">
+        <v>16</v>
+      </c>
+      <c r="E34" s="16">
         <f t="shared" ref="E34:F34" si="1">SUM(E25:E32)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="16">
         <f>SUM(G25:G32)</f>
         <v>435</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="16">
         <f>SUM(H25:H32)</f>
         <v>154</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="16">
         <f t="shared" ref="I34:J34" si="2">SUM(I25:I32)</f>
         <v>254</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="16">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="38" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1889,231 +1899,231 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="10">
         <v>1</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="18">
-        <v>3</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18">
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11">
         <v>75</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="11">
         <v>20</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="11">
         <v>51</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="10">
         <v>2</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="18">
-        <v>3</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18">
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11">
         <v>75</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="11">
         <v>20</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="11">
         <v>51</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>3</v>
-      </c>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="10">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="18">
-        <v>3</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18">
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11">
         <v>75</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="11">
         <v>20</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="11">
         <v>51</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="10">
         <v>4</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="18">
-        <v>3</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18">
+      <c r="D42" s="11">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11">
         <v>75</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="11">
         <v>20</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="11">
         <v>51</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="10">
         <v>5</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="18">
-        <v>3</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18">
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11">
         <v>75</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="11">
         <v>20</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="11">
         <v>51</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="10">
         <v>6</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18">
+      <c r="D44" s="11"/>
+      <c r="E44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11">
         <v>90</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="11">
         <v>90</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="16">
         <f>SUM(D39:D43)</f>
         <v>15</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="16">
         <f t="shared" ref="E45:J45" si="3">SUM(E39:E43)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="16">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="16">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="16">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="16">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -2148,261 +2158,261 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="10">
         <v>1</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="11">
         <v>1</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18">
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11">
         <v>45</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="11">
         <v>0</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="11">
         <v>45</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="10">
         <v>2</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18">
-        <v>3</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18">
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11">
         <v>75</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="11">
         <v>20</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="11">
         <v>51</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>3</v>
-      </c>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="10">
+        <v>3</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="18">
-        <v>3</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18">
+      <c r="D52" s="11">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="11">
         <v>75</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="11">
         <v>20</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="11">
         <v>51</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="10">
         <v>4</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="18">
-        <v>3</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18">
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11">
         <v>75</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="11">
         <v>20</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="11">
         <v>51</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="10">
         <v>5</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="18">
-        <v>3</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18">
+      <c r="D54" s="11">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11">
         <v>75</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="11">
         <v>20</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="11">
         <v>51</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="10">
         <v>6</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="18">
-        <v>3</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18">
+      <c r="D55" s="11">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11">
         <v>75</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="11">
         <v>20</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="11">
         <v>51</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="10">
         <v>7</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18">
+      <c r="D56" s="11"/>
+      <c r="E56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11">
         <v>90</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="11">
         <v>0</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="11">
         <v>90</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="27">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="19">
         <f>SUM(D50:D55)</f>
         <v>16</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="19">
         <f t="shared" ref="E57:J57" si="4">SUM(E50:E55)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="19">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="19">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="19">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J57" s="27">
+      <c r="J57" s="19">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="61" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2437,152 +2447,152 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="10">
         <v>1</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="11">
         <v>1</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="18">
+      <c r="E62" s="20"/>
+      <c r="F62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11">
         <v>45</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="11">
         <v>0</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="11">
         <v>45</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J62" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="10">
         <v>2</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="18">
-        <v>3</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18">
+      <c r="D63" s="11">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11">
         <v>75</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="11">
         <v>20</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="11">
         <v>51</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <v>3</v>
-      </c>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="10">
+        <v>3</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="11">
         <v>2</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18">
+      <c r="E64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="11">
         <v>45</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="11">
         <v>17</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="11">
         <v>25</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="10">
         <v>4</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="11">
         <v>2</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18">
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11">
         <v>45</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="11">
         <v>17</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="11">
         <v>25</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J65" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="10">
         <v>5</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="31">
+      <c r="D66" s="23"/>
+      <c r="E66" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="23">
         <f>6*45</f>
         <v>270</v>
       </c>
-      <c r="H66" s="31">
+      <c r="H66" s="23">
         <v>0</v>
       </c>
-      <c r="I66" s="31">
+      <c r="I66" s="23">
         <f>6*45</f>
         <v>270</v>
       </c>
-      <c r="J66" s="31">
+      <c r="J66" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2590,236 +2600,236 @@
       <c r="A67" s="33">
         <v>6</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="11">
         <v>2</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="18">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11">
         <v>45</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="11">
         <v>17</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="11">
         <v>25</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J67" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="11">
         <v>2</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="18">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="11">
         <v>45</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="11">
         <v>17</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="11">
         <v>25</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="11">
         <v>2</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="18">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11">
         <v>45</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="11">
         <v>17</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="11">
         <v>25</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="11">
         <v>2</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="18">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11">
         <v>45</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="11">
         <v>17</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="11">
         <v>25</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J70" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="11">
         <v>2</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="18">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="11">
         <v>45</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="11">
         <v>17</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="11">
         <v>25</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="11">
         <v>2</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="18">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="11">
         <v>45</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="11">
         <v>17</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="11">
         <v>25</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="35">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="25">
         <f>SUM(D62:D67)</f>
         <v>10</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="27">
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="19">
         <f>SUM(G62:G67)-G66</f>
         <v>255</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="19">
         <f t="shared" ref="H73:I73" si="5">SUM(H62:H67)-H66</f>
         <v>71</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="19">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J73" s="19">
         <f t="shared" ref="J73" si="6">SUM(J62:J67)</f>
         <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
@@ -2827,46 +2837,48 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13" t="s">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13" t="s">
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="82" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
@@ -2879,13 +2891,11 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A67:A72"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:J79"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/upload/KE HOACH GIANG DAY Tin UD K42.xlsx
+++ b/upload/KE HOACH GIANG DAY Tin UD K42.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tin học UD K42'!$A$1:$J$83</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -31,12 +31,6 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>KẾ HOẠCH GIẢNG DẠY HỆ CAO ĐẲNG - KHÓA 42</t>
-  </si>
-  <si>
-    <t>Khóa học 42 (2017-2020)</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -157,19 +151,6 @@
   </si>
   <si>
     <t>Anh văn 2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HỌC KỲ IV: ……16…….. TC/ĐVHT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Bắt buộc: ……16…….TC/ ĐVHT, Tự chọn:…0…… TC/ ĐVHT)</t>
-    </r>
   </si>
   <si>
     <t>Cần Thơ, ngày 21 tháng 12 năm 2017</t>
@@ -393,6 +374,25 @@
   </si>
   <si>
     <t>Lập trình truyền  thông</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HỌC KỲ IV: ……16…….. TC/ĐVHT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Bắt buộc: ……16…….TC/ ĐVHT, Tự chọn:…4…… TC/ ĐVHT)</t>
+    </r>
+  </si>
+  <si>
+    <t>Khóa học 42 (2017-2020)</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH GIẢNG DẠY HỆ CAO ĐẲNG - KHÓA 42</t>
   </si>
 </sst>
 </file>
@@ -632,35 +632,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,8 +1061,8 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,125 +1078,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="A4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="A5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="A8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11">
@@ -1234,14 +1234,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11">
@@ -1262,14 +1262,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11">
@@ -1290,16 +1290,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" s="13">
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11">
@@ -1320,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11">
@@ -1350,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="13">
         <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11">
@@ -1380,16 +1380,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11">
@@ -1410,16 +1410,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="11">
@@ -1440,16 +1440,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="15">
         <v>2</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11">
@@ -1466,11 +1466,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="16">
         <f>SUM(D11:D19)</f>
         <v>18</v>
@@ -1507,49 +1507,49 @@
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="A22" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1557,16 +1557,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11">
@@ -1587,14 +1587,14 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11">
@@ -1615,16 +1615,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11">
@@ -1645,14 +1645,14 @@
         <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11">
@@ -1673,16 +1673,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="11">
         <v>3</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11">
@@ -1703,16 +1703,16 @@
         <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11">
@@ -1733,16 +1733,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D31" s="11">
         <v>3</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11">
@@ -1763,16 +1763,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" s="11">
         <v>3</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11">
@@ -1793,14 +1793,14 @@
         <v>9</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11">
@@ -1817,11 +1817,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="16">
         <f>SUM(D25:D32)</f>
         <v>16</v>
@@ -1853,49 +1853,49 @@
     </row>
     <row r="35" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
+      <c r="A36" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="38" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,16 +1903,16 @@
         <v>1</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" s="11">
         <v>3</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="11">
@@ -1933,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" s="11">
         <v>3</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="11">
@@ -1963,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" s="11">
         <v>3</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11">
@@ -1993,16 +1993,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="11">
         <v>3</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11">
@@ -2023,16 +2023,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" s="11">
         <v>3</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="11">
@@ -2053,14 +2053,14 @@
         <v>6</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="11">
@@ -2077,11 +2077,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="16">
         <f>SUM(D39:D43)</f>
         <v>15</v>
@@ -2112,49 +2112,49 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
+      <c r="A47" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,16 +2162,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="11">
@@ -2192,16 +2192,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D51" s="11">
         <v>3</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="11">
@@ -2222,16 +2222,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52" s="11">
         <v>3</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="11">
@@ -2252,16 +2252,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D53" s="11">
         <v>3</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="11">
@@ -2282,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D54" s="11">
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="11">
@@ -2312,16 +2312,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" s="11">
         <v>3</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="11">
@@ -2342,14 +2342,14 @@
         <v>7</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="11">
@@ -2366,11 +2366,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="19">
         <f>SUM(D50:D55)</f>
         <v>16</v>
@@ -2401,49 +2401,49 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
+      <c r="A59" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
     </row>
     <row r="61" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="J61" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,17 +2451,17 @@
         <v>1</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" s="11">
         <v>1</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="11">
         <v>45</v>
@@ -2481,16 +2481,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D63" s="11">
         <v>3</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="11">
@@ -2511,16 +2511,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D64" s="11">
         <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="11">
@@ -2541,16 +2541,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D65" s="11">
         <v>2</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="11">
@@ -2571,14 +2571,14 @@
         <v>5</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="23">
@@ -2597,21 +2597,21 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="A67" s="35">
         <v>6</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67" s="11">
         <v>2</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" s="11">
         <v>45</v>
@@ -2627,19 +2627,19 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D68" s="11">
         <v>2</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G68" s="11">
         <v>45</v>
@@ -2655,19 +2655,19 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69" s="11">
         <v>2</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="11">
         <v>45</v>
@@ -2683,19 +2683,19 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D70" s="11">
         <v>2</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G70" s="11">
         <v>45</v>
@@ -2711,19 +2711,19 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G71" s="11">
         <v>45</v>
@@ -2739,19 +2739,19 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D72" s="11">
         <v>2</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G72" s="11">
         <v>45</v>
@@ -2767,11 +2767,11 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="25">
         <f>SUM(D62:D67)</f>
         <v>10</v>
@@ -2837,48 +2837,41 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
+      <c r="G78" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30" t="s">
+      <c r="A79" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
     </row>
     <row r="82" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
+      <c r="A83" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
@@ -2895,6 +2888,13 @@
     <mergeCell ref="G78:J78"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="D79:F79"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="G79:J79"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
